--- a/mySystem/mySystem/xls/tuihuo/表2产品退货审批单（1）.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表2产品退货审批单（1）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <r>
       <rPr>
@@ -128,14 +128,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>不予批准（退回）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>批    准</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>审批日期</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -282,6 +274,10 @@
       </rPr>
       <t>为系统自动生成。</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>审批结果</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -433,12 +429,45 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -448,18 +477,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -468,27 +485,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,7 +769,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -784,178 +780,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="2" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="128.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15" t="s">
+      <c r="A14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="E14" s="2"/>
+    </row>
+    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="12"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="6"/>
-    </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="17" t="s">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="17" t="s">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="12"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:E13"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -963,6 +952,11 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:E13"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mySystem/mySystem/xls/tuihuo/表2产品退货审批单（1）.xlsx
+++ b/mySystem/mySystem/xls/tuihuo/表2产品退货审批单（1）.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <r>
       <rPr>
@@ -132,151 +132,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">9. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>销售总监</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>首先接收审核指令</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>--</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>我的工作台</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写审核意见。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">11. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>如“不予批准”，则退还给“申请人”；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>若批准，则进入“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">PA </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>质量部”审批。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">12. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>审批日期：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>为系统自动生成。</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>审批结果</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -427,7 +282,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -450,41 +305,32 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -766,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -780,22 +626,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
     </row>
     <row r="2" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
@@ -805,8 +651,8 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -816,8 +662,8 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="11"/>
     </row>
     <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -827,8 +673,8 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -847,59 +693,59 @@
       <c r="A7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="19"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
     </row>
     <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
     </row>
     <row r="11" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="9"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="9"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="7" t="s">
@@ -907,58 +753,19 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="12"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="12"/>
-    </row>
-    <row r="27" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="12"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-    </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A28:E28"/>
+  <mergeCells count="8">
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="B8:E13"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="B8:E13"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A27:E27"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>